--- a/Q Electrical/34939/zres_siteapp_NEW.xlsx
+++ b/Q Electrical/34939/zres_siteapp_NEW.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Q Electrical\34939\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9948A8AF-4508-4936-BC62-6B0B2064F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF5F0C1-DBB4-45F4-962B-0EA958C53864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="1755" windowWidth="28890" windowHeight="19140" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="8910" yWindow="1470" windowWidth="28890" windowHeight="19140" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -64,33 +64,15 @@
     <t>Gland properly and securely fitted</t>
   </si>
   <si>
-    <t>Correct cable identification</t>
-  </si>
-  <si>
-    <t>Correct core identification</t>
-  </si>
-  <si>
     <t>Cores loomed properly</t>
   </si>
   <si>
-    <t>Cores on correct terminals</t>
-  </si>
-  <si>
-    <t>Terminals properly tensioned</t>
-  </si>
-  <si>
     <t>Cores correctly lugged</t>
   </si>
   <si>
     <t>Lugs correctly insulated</t>
   </si>
   <si>
-    <t>Adequate clearances</t>
-  </si>
-  <si>
-    <t>checklist-flat</t>
-  </si>
-  <si>
     <t>QA_TEM_011_Mains &amp; Submains Installation</t>
   </si>
   <si>
@@ -103,81 +85,45 @@
     <t>Cable has correct origin and destination</t>
   </si>
   <si>
-    <t>9a8aaf33-46d7-541b-bdcb-5bcb4edad69e</t>
-  </si>
-  <si>
     <t>textbox</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>9bc36e79-bef2-593f-9b6c-3384bc4105a2</t>
-  </si>
-  <si>
     <t>Destination</t>
   </si>
   <si>
     <t>Cable Type, Number of Cores, Size and Configuration is as specified</t>
   </si>
   <si>
-    <t>4996ef1e-b9ae-5cc2-b0b0-3ae093277bf1</t>
-  </si>
-  <si>
     <t>Size (mm2)</t>
   </si>
   <si>
-    <t>4f31905a-7588-59a4-bfe6-2a6c2d7271b1</t>
-  </si>
-  <si>
     <t>Cores</t>
   </si>
   <si>
-    <t>701a1ac8-8624-5478-b3e9-f169078a878a</t>
-  </si>
-  <si>
     <t>Cable Type</t>
   </si>
   <si>
-    <t>4eda15aa-24c5-5ff2-9e0e-bd87bfc73c55</t>
-  </si>
-  <si>
     <t>Earth Size (mm2)</t>
   </si>
   <si>
-    <t>4959e65c-a0da-52f2-962e-d210690ab21b</t>
-  </si>
-  <si>
-    <t>4b638f83-56a7-5852-8f51-d728479526d1</t>
-  </si>
-  <si>
     <t>Bending radius recommended by the cable manufacturer has been observed</t>
   </si>
   <si>
-    <t>4b6e3652-602f-5018-b26f-123fe372d80e</t>
-  </si>
-  <si>
     <t>Bending Radius (mm)</t>
   </si>
   <si>
-    <t>2317db07-bfde-5fb4-a3bc-8f27e881d7e8</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
     <t>Where manufacturer’s information is not available, the following minimum internal radii may be considered suitable</t>
   </si>
   <si>
-    <t>3a4c3dbd-c304-54d1-91b1-334dcdae11dd</t>
-  </si>
-  <si>
     <t>Unarmoured sheathed cables = 6 times the cable diameter</t>
   </si>
   <si>
-    <t>38ceaebc-48e3-5b70-be41-64595e44b5e6</t>
-  </si>
-  <si>
     <t>Armoured sheathed cables = 12 times the cable diameter</t>
   </si>
   <si>
@@ -194,13 +140,112 @@
   </si>
   <si>
     <t>Cable is marked with cable or circuit number</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Confirm following items comply with requirements:</t>
+  </si>
+  <si>
+    <t>Ensure when using a winch to install cables that the correct breakaway pin/fuse and swivel is utilised to ensure the maximum pulling tension is not exceeded.</t>
+  </si>
+  <si>
+    <t>e43e2fd4-52ca-5553-93a0-cb5a28a08b07</t>
+  </si>
+  <si>
+    <t>Maximum pulling tension: (kN)</t>
+  </si>
+  <si>
+    <t>2ddaaf50-7f67-5b90-bb48-923c2758646b</t>
+  </si>
+  <si>
+    <t>Breakaway pin/Fuse size: (kN) (Attach data sheets)</t>
+  </si>
+  <si>
+    <t>68155f0c-9633-5029-80a9-09390c76728b</t>
+  </si>
+  <si>
+    <t>fd89e163-15f3-517e-ac19-3a728eddb5b3</t>
+  </si>
+  <si>
+    <t>a952ff97-3755-5974-b6e1-da2f8054129c</t>
+  </si>
+  <si>
+    <t>Reference Document/s:</t>
+  </si>
+  <si>
+    <t>4263b996-77c1-508b-8a63-2490b0c27e94</t>
+  </si>
+  <si>
+    <t>a32e2500-5c29-576b-9de6-544e9c9d7bda</t>
+  </si>
+  <si>
+    <t>773a9455-018a-5818-a9a0-3549ef83bf48</t>
+  </si>
+  <si>
+    <t>9244be0b-35f1-5a88-b50c-8c026d9d920d</t>
+  </si>
+  <si>
+    <t>0fec3bec-0659-53ed-81a0-e0996f58787b</t>
+  </si>
+  <si>
+    <t>1ce746ba-2b36-59ba-8586-0a08dbd5ddda</t>
+  </si>
+  <si>
+    <t>53b82c0f-1f3f-5369-9d80-db2ea9b8dcd7</t>
+  </si>
+  <si>
+    <t>4da24eca-22b2-5a80-9194-359c147b8b77</t>
+  </si>
+  <si>
+    <t>38443967-8867-5897-9db5-41190454fafb</t>
+  </si>
+  <si>
+    <t>1491e186-b3c7-5d66-a894-a6c8954eccbd</t>
+  </si>
+  <si>
+    <t>234e64e8-1f33-576d-bae9-1e07bf47dcfd</t>
+  </si>
+  <si>
+    <t>Cable Terminations</t>
+  </si>
+  <si>
+    <t>Correct cable identification (Cable Size/Cable Type) (Photo required)</t>
+  </si>
+  <si>
+    <t>Correct core identification (Photo required)</t>
+  </si>
+  <si>
+    <t>Cores on correct terminals (Photo required)</t>
+  </si>
+  <si>
+    <t>Terminals properly tensioned as per manufactures specification:</t>
+  </si>
+  <si>
+    <t>3318cb51-0852-5e57-b463-a2fe5e4c0eb2</t>
+  </si>
+  <si>
+    <t>Torque Setting (NM):</t>
+  </si>
+  <si>
+    <t>ef986c6c-6049-56b6-8613-0c2103ea63c2</t>
+  </si>
+  <si>
+    <t>Torque Wrench Serial #</t>
+  </si>
+  <si>
+    <t>Calibration Exp. Date:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,12 +384,6 @@
       <sz val="6"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -528,14 +567,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -699,12 +736,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1080,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,348 +1159,445 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>54</v>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>55</v>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>56</v>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G35" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
+  <autoFilter ref="A1:G1" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>